--- a/GoogleStudyResults.xlsx
+++ b/GoogleStudyResults.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c722e206ab338ff3/Fritid/RBA artikkel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="13_ncr:1_{18F570B3-CAEA-47D8-A0A3-8DCBDB24B177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8DE7778-06CC-4EEA-9780-129F4B8419BF}"/>
+  <xr:revisionPtr revIDLastSave="713" documentId="13_ncr:1_{18F570B3-CAEA-47D8-A0A3-8DCBDB24B177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8228DFD-C98D-4ABE-98A1-100580F63EC0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{69B6D130-D608-483C-A230-2284C1242219}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="9" xr2:uid="{69B6D130-D608-483C-A230-2284C1242219}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend" sheetId="5" r:id="rId1"/>
     <sheet name="SFA" sheetId="1" r:id="rId2"/>
     <sheet name="MFA 1" sheetId="2" r:id="rId3"/>
-    <sheet name="MFA2" sheetId="3" r:id="rId4"/>
-    <sheet name="MFA3" sheetId="4" r:id="rId5"/>
+    <sheet name="MFA 2" sheetId="3" r:id="rId4"/>
+    <sheet name="MFA 3" sheetId="4" r:id="rId5"/>
+    <sheet name="MFA 4" sheetId="6" r:id="rId6"/>
+    <sheet name="MFA 5" sheetId="7" r:id="rId7"/>
+    <sheet name="MFA 6" sheetId="8" r:id="rId8"/>
+    <sheet name="MFA 7" sheetId="9" r:id="rId9"/>
+    <sheet name="MFA 8" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="106">
   <si>
     <t>Scenario</t>
   </si>
@@ -140,9 +145,6 @@
 1) Confirm 2FA phone number and get verification code by SMS 
 2) Verification code sent to account email 
 --&gt; Successful recovery</t>
-  </si>
-  <si>
-    <t>Results from the study on Google accounts with multi factor authentication and 2FA phone as the only registered secondary factor.</t>
   </si>
   <si>
     <t>2FA phone X</t>
@@ -2762,12 +2764,4130 @@
       <t xml:space="preserve"> Failed recovery</t>
     </r>
   </si>
+  <si>
+    <t>-2FA phone (SMS)
+-Authenticator app</t>
+  </si>
+  <si>
+    <t>-2FA phone (SMS) -Authenticator app</t>
+  </si>
+  <si>
+    <t>-2FA phone (SMS) 
+-Authenticator app</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Google prompt ✘ 
+2) Authenticator app or 2FA phone ✘ 
+3) Verification code sent to account email ✘ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1 ) Google prompt ✔
+2) Authenticator app ✘ 
+3) Verification code sent to account email or recovery email ✘ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent to account email after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Google prompt ✘
+2) Authenticator app or 2FA phone ✔Any
+3) Verification code sent to account email or recovery email ✘ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Verify new email </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1 ) Google prompt ✘ 
+2) Authenticator app or 2FA phone ✘
+3) Verification code sent to account email ✔
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent to account email after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Additional comments </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Doing any two steps grants immediate access.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Google prompt ✘ 
+2) Authenticator app or 2FA phone ✘ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1) Google prompt ✔
+2) Authenticator app ✘ 
+3) Verification code sent to account email or recovery email ✘ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent to account email after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Google prompt ✘
+2) Authenticator app or 2FA phone ✔Any 
+3) Verification code sent to account email or recovery email ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Additional comments </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Doing any two steps grants immediate aecess.</t>
+    </r>
+  </si>
+  <si>
+    <t>sent t.0 account email or</t>
+  </si>
+  <si>
+    <t>Test 1
+1) Confirm the 2FA phone number and get Google prompt with two steps X  
+2) Authenticator app X 
+3) Confirm the 2FA phone number and get verification code by SMS X 
+--&gt; Failed recovery 
+Test 2
+1) Confirm the 2FA phone number and get Google prompt with two steps 
+2) Verification code sent to account email or recovery email ' —Y 
+--&gt; Password reset link sent to account email after 48hrs 
+Test 3
+1)  Confirm the 2FA phone number and get Google prompt with two steps X 
+2) Authenticator app
+3) Verification code sent to account email or recovery email 
+--&gt; Failed recovery 
+Test 4
+1) Confirm the 2FA phone number and get Google prompt with two steps X 
+2) Authenticator app X 
+3) Confirm the 2FA phone number and get verification code by SMS 
+4) Google prompt with two steps (again) X 
+5) Verification code sent to account email or recovery email X 
+--&gt; Failed recovery 
+Test 5 
+1) Confirm the 2FA phone number and get Google prompt with two steps X 
+2) Authenticator app X 
+3) Confirm the 2FA phone number and get verification code by SMS 
+4) Google prompt with two steps (again) 
+5) Verification code sent to account email or recovery email y 
+--&gt; Password reset link sent to account email after 48hrs 
+Test 6 
+1) Confirm the 2FA phone number and get Google prompt with two steps X 
+2) Authenticator app X 
+3) Confirm the 2FA phone number and get verification code by SMS 
+4) Google prompt with two steps (again) X 
+5) Verification code sent to account email or recovery email 
+--&gt; Successful recovery
+Test 7
+1) Confirm the 2FA phone number and get Google prompt with two steps 
+2) Verification code sent to account email or recovery email 
+--&gt; Successful recovery 
+Test 8 
+1) Confirm the 2FA phone number and get Google prompt with two steps 
+2) Authenticator app X 
+3) Verification code sent to account email or recovery email 
+--&gt; Successful recovery</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Confirm the 2FA phone number and get Google prompt with two steps ✘  
+2) Authenticator app ✘
+3) Confirm the 2FA phone number and get verification code by SMS ✘ 
+--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Confirm the 2FA phone number and get Google prompt with two steps ✔
+2) Verification code sent to account email or recovery email ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent to account email after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1)  Confirm the 2FA phone number and get Google prompt with two steps ✘
+2) Authenticator app ✔
+3) Verification code sent to account email or recovery email ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Confirm the 2FA phone number and get Google prompt with two steps ✘
+2) Authenticator app ✘
+3) Confirm the 2FA phone number and get verification code by SMS  ✔
+4) Google prompt with two steps (again) ✘
+5) Verification code sent to account email or recovery email ✘
+--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Confirm the 2FA phone number and get Google prompt with two steps ✘
+2) Authenticator app ✘
+3) Confirm the 2FA phone number and get verification code by SMS ✔
+4) Google prompt with two steps (again) ✔
+5) Verification code sent to account email or recovery email ✘ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent to account email after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test 6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Confirm the 2FA phone number and get Google prompt with two steps ✘ 
+2) Authenticator app ✘
+3) Confirm the 2FA phone number and get verification code by SMS ✔
+4) Google prompt with two steps (again) ✘ 
+5) Verification code sent to account email or recovery email ✔
+--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Successful recovery
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Confirm the 2FA phone number and get Google prompt with two steps ✔
+2) Verification code sent to account email or recovery email ✔
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Successful recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test 8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Confirm the 2FA phone number and get Google prompt with two steps ✔
+2) Authenticator app ✘
+3) Verification code sent to account email or recovery email ✔
+--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Successful recovery</t>
+    </r>
+  </si>
+  <si>
+    <t>phone (SMS)</t>
+  </si>
+  <si>
+    <t>The recovery procedure is the same as in Scenario 2.
+The only difference is that you have confirm the phone number before using it to receive verification codes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not signed in on phone. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 2FA phone or recovery phone ✘
+2) Verification code sent to account email ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Failed recovery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 2FA phone or recovery phone ✔Any
+2) Verification code sent to account email ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verify new email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password reset link sent after 48hrs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 2FA phone or recovery phone ✘
+2) Verification code sent to account email ✔
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent to account email after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 2FA phone or recovery phone ✔
+2) Verification code sent to account email ✔
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Successful recovery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 2FA phone or recovery phone ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 2FA phone or recovery phone ✔Any
+2) Verification code sent to account email ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1 ) 2FA phone or recovery phone ✔Any 
+2) Verification code sent to account email ✔
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Successful recovery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The recovery procedure is the same as in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Scenario 2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+The only difference is that you have confirm the phone number before using it to receive verification codes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 2FA phone or recovery phone ✘ 
+2) Verification code sent to account email ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 2FA phone or recovery phone ✔Any 
+2) Verification code sent to account email or recovery email ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verify new email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Password reset link sent after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 2FA phone or recovery phone ✘ 
+2) Verification code sent to account email ✔
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent to account email after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 2FA phone or recovery phone ✔Any 
+2) Verification code sent to account email or recovery email ✔Any
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Successful recovery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 2FA phone or recovery phone ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Test 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) 2FA phone or recovery phone ✔Any
+2) Verification code sent to account email or recovery email ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1 ) 2FA phone or recovery phone ✔Any 
+2) Verification code sent to account email or recovery email ✔Any
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Successful recovery</t>
+    </r>
+  </si>
+  <si>
+    <t>No registered recovery factors.</t>
+  </si>
+  <si>
+    <t>Not signed in on phone.</t>
+  </si>
+  <si>
+    <t>No recovery factors registered.</t>
+  </si>
+  <si>
+    <t>Recovery email is registered.</t>
+  </si>
+  <si>
+    <t>Recovery phone is registered.</t>
+  </si>
+  <si>
+    <t>Recovery email and recovery phone registered.</t>
+  </si>
+  <si>
+    <t>-2FA phone (SMS) 
+-Authenticator app 
+-Backup codes</t>
+  </si>
+  <si>
+    <t>-2FA phone (SMS) 
+-Authenticator app
+-Backup codes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Google prompt ✘  
+2) Authenticator app ✘ 
+3) Backup code, 2FA phone or recovery phone ✘  
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Google prompt ✔
+2) Authenticator app ✘ 
+3) Backup code ✘  
+4) Verification code gent to account email or recovery email ✘ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent to account email after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Google prompt ✘ 
+2) Authenticator app ✔
+3) Backup code ✘ 
+4) Verification code sent to account email or recovery email ✘  
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Failed recovery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Google prompt ✘ 
+2) Authenticator app ✘ 
+3) Backup code, 2FA phone or recovery phone ✔Any
+4) Verification code sent to account email or recovery email ✘ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Failed recovery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Google prompt ✘  
+2) Authenticator app ✘ 
+3) Backup code, 2FA phone or recovery phone ✘  
+4) Verification code sent to account email ✘ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Google prompt ✔
+2) Authenticator app ✘ 
+3) Backup code ✘  
+4) Verification code gent to account email or recovery email ✘ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent to account email after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Google prompt ✘ 
+2) Authenticator app ✔
+3) Backup code ✘ 
+4) Verification code sent to account email or recovery email ✘  
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Verify new email </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Google prompt ✘ 
+2) Authenticator app ✘ 
+3) Backup code, 2FA phone or recovery phone ✔Any
+4) Verification code sent to account email or recovery email ✘ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verify new email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password reset link sent after 48hrs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Google prompt ✘ 
+2) Authenticator app ✘ 
+3) Backup code, 2FA phone or recovery phone ✘ 
+4) Verification code sent to account email or recovery email ✔Any
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password reset link sent to account email after 48hrs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Confirm 2FA phone number ✘  
+2) Confirm recovery phone number ✘ 
+3) Authenticator app ✘  
+4) Backup code ✘ 
+--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Confirm 2FA phone number and Google prompt with two steps  ✔
+2) Verification code sent to account email or recovery email ✘ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent to account email after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Confirm 2FA phone number ✘  
+2) Confirm recovery phone number and Google prompt with two steps  ✔
+3) Verification code sent to account email or recovery email ✘ 
+--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Password reset link sent to account email after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Confirm 2FA phone number ✘  
+2) Confirm recovery phone number ✘ 
+3) Authenticator app ✔
+4) Verification code sent to account email or recovery email ✘ 
+5) Backup code ✘ 
+--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Failed recovery
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Confirm 2FA phone number ✘  
+2) Confirm recovery phone number ✘ 
+3) Authenticator app ✘
+4) Backup code ✔ 
+5) Verification code sent to account email or recovery email ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Failed recovery
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Confirm 2FA phone number and Google prompt with two steps  ✔
+2) Verification code sent to account email or recovery email ✔Any 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Successful recovery
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Confirm 2FA phone number ✘  
+2) Confirm recovery phone number ✘ 
+3) Authenticator app ✔
+4) Verification code sent to account email or recovery email  ✔Any
+--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Successful recovery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Confirm 2FA phone number ✘  
+2) Confirm recovery phone number ✘ 
+3) Authenticator app ✔
+4) Verification code sent to account email or recovery email ✘
+5) Backup code ✔  
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verify new email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Password reset link sent after 48hrs</t>
+    </r>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>-2FA phone (SMS) 
+-Authenticator app 
+-Backup codes 
+-Security key</t>
+  </si>
+  <si>
+    <t>Test 1 
+1) Security key X 
+2) Google prompt X 
+3) Authenticator app X 
+4) Backup code, 2FA phone or recovery phone X 
+5) Verification code sent to account email X 
+--&gt; Failed recovery 
+Test 2 
+1) Security key 
+2) Google prompt X 
+3) Authenticator app X 
+4) Backup code X 
+5) Verification code sent to account email or recovery email X 
+--&gt; Verify new email
+--&gt; Password reset link sent after 48hrs 
+Test 3 
+1) Security key X 
+2) Google prompt 
+3) Authenticator app X 
+4) Backup code X 
+5) Verification code sent to account email or recovery email X 
+--&gt; Password reset link sent to account email after 48hrs 
+Test 4 
+1) Security key X 
+2) Google prompt X 
+3) Authenticator app 
+4) Backup code X 
+5) Verification code sent to account email or recovery email X 
+--&gt; Verify new email 
+--&gt; Password reset link sent after 48hrs 
+Test 5 
+1) Security key X 
+2) Google prompt X 
+3) Authenticator app X 
+4) Backup code, 2FA phone or recovery phone Any
+5) Verification code sent to account email or recovery email X
+--&gt; Verify new email 
+--&gt; Password reset link sent after 48hrs 
+Test 6 
+1) Security key X 
+2) Google prompt X 
+3) Authenticator app X 
+4) Backup code, 2FA phone or recovery phoneX 
+5) Verification code sent to account email 
+Password reset link sent to account email after 48hrs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘  
+2) Google prompt ✘  
+3) Authenticator app ✘  
+4) Backup code, 2FA phone or recovery phone ✘  
+5) Verification code sent to account email ✘ 
+--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✔
+2) Google prompt ✘  
+3) Authenticator app ✘  
+4) Backup code ✘ 
+5) Verification code sent to account email or recovery email ✘  
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verify new email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘
+2) Google prompt ✔
+3) Authenticator app ✘ 
+4) Backup code ✘ 
+5) Verification code sent to account email or recovery email ✘ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent to account email after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘
+2) Google prompt ✘
+3) Authenticator app ✔
+4) Backup code ✘
+5) Verification code sent to account email or recovery email ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Verify new email </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘
+2) Google prompt ✘
+3) Authenticator app ✘
+4) Backup code, 2FA phone or recovery phone ✔Any
+5) Verification code sent to account email or recovery email ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Verify new email </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘ 
+2) Google prompt ✘
+3) Authenticator app ✘
+4) Backup code, 2FA phone or recovery phone ✘
+5) Verification code sent to account email ✔
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password reset link sent to account email after 48hrs</t>
+    </r>
+  </si>
+  <si>
+    <t>-2FA phone (SMS) 
+-Authenticator app
+-Backup codes
+-Security key</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘  
+2) Google prompt ✘  
+3) Authenticator app ✘  
+4) Backup code, 2FA phone or recovery phone ✘  
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✔
+2) Google prompt ✘  
+3) Authenticator app ✘  
+4) Backup code ✘ 
+5) Verification code sent to account email or recovery email ✘  
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verify new email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘
+2) Google prompt ✔
+3) Authenticator app ✘ 
+4) Backup code ✘ 
+5) Verification code sent to account email or recovery email ✘ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent to account email after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘
+2) Google prompt ✘
+3) Authenticator app ✔
+4) Backup code ✘
+5) Verification code sent to account email or recovery email ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Failed recovery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘
+2) Google prompt ✘
+3) Authenticator app ✘
+4) Backup code, 2FA phone or recovery phone ✔Any
+5) Verification code sent to account email or recovery email ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Failed recovery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1) Security key ✘  
+2) Confirm 2FA phone number and Google prompt with two steps ✘  
+3) Confirm recovery phone number and Google prompt with two steps ✘  
+4) Authenticator app ✘  
+5) Backup code ✘  
+--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✔
+2) Verification code sent to account email or recovery email ✘  
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verify new email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘
+2) Confirm 2FA phone number and Google prompt with two steps ✔
+3) Verification code sent to account email or recovery email ✘ 
+4) Google prompt with two steps (again) ✘ 
+5) Authenticator app ✘
+--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Failed recovery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘
+2) Confirm 2FA phone number and Google prompt with two steps ✔
+3) Verification code sent to account email or recovery email ✘ 
+4) Google prompt with two steps (again) ✔ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Password reset link sent to account email after 48hrs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘
+2) Confirm 2FA phone number and Google prompt with two steps ✔
+3) Verification code sent to account email or recovery email ✔
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Successful recovery
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test 6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘  
+2) Confirm 2FA phone number and Google prompt with two steps ✘  
+3) Confirm recovery phone number and Google prompt with two steps ✘  
+4) Authenticator app ✔ 
+5)  Verification code sent to account email or recovery email ✘ 
+6) Backup code ✘ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Failed recovery 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Test 7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘  
+2) Confirm 2FA phone number and Google prompt with two steps ✘  
+3) Confirm recovery phone number and Google prompt with two steps ✘  
+4) Authenticator app ✘ 
+5) Backup code ✔  
+6)  Verification code sent to account email or recovery email ✘ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Failed recovery </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">No signed in on phone. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘  
+2) Authenticator app ✘  
+3) Backup code, 2FA phone or recovery phone ✘  
+4) Verification code sent to account email ✘ 
+--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✔
+2) Authenticator app ✘  
+3) Backup code ✘ 
+4) Verification code sent to account email or recovery email ✘  
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verify new email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘ 
+2) Authenticator app ✔ 
+3) Backup code ✘ 
+4) Verification code sent to account email or recovery email ✘ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verify new email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent after 48hrs 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘
+2) Authenticator app ✘  
+3) Backup code, 2FA phone or recovery phone ✔Any
+4) Verification code sent to account email or recovery email ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Verify new email </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘
+2) Authenticator app ✘
+3) Backup code, 2FA phone or recovery phone ✘
+4) Verification code sent to account email ✔
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent to account email after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘  
+2) Authenticator app ✘  
+3) Backup code, 2FA phone or recovery phone ✘  
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✔
+2) Authenticator app ✘  
+3) Backup code ✘ 
+4) Verification code sent to account email or recovery email ✘  
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verify new email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Password reset link sent after 48hrs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘ 
+2) Authenticator app ✔ 
+3) Backup code ✘ 
+4) Verification code sent to account email or recovery email ✘ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Failed recovery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Test 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘
+2) Authenticator app ✘  
+3) Backup code, 2FA phone or recovery phone ✔Any
+4) Verification code sent to account email or recovery email ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Failed recovery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test 1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘  
+2) Authenticator app ✘  
+3) Backup code ✘  
+4) Confirm 2FA phone number and use verification code sent by phone ✘
+5) Confirm recovery phone number and use verification code sent by phone ✘  
+--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Failed recovery </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test 2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✔
+2) Verification code sent to account email or recovery email ✘  
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verify new email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Password reset link sent after 48hrs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘ 
+2) Authenticator app ✔ 
+3) Verification code sent to account email or recovery email ✘ 
+4) Backup code ✘ 
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Failed recovery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘
+2) Authenticator app ✘  
+3) Backup code ✔ 
+4) Verification code sent to account email or recovery email ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Failed recovery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Test 5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+1) Security key ✘
+2) Authenticator app ✘
+3) Backup code ✘
+4) Confirm 2FA phone number and use verification code sent by phone ✔
+5) Verification code sent to account email or recovery email ✘
+--&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Failed recovery</t>
+    </r>
+  </si>
+  <si>
+    <t>2FA phone, authenticator app, backup codes and security key as the registered secondary factors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Results from the study on Google accounts with multi factor authentication. </t>
+  </si>
+  <si>
+    <t>2FA phone, authenticator app and backup codes as the registered secondary factors.</t>
+  </si>
+  <si>
+    <t>2FA phone is the only registered secondary factor.</t>
+  </si>
+  <si>
+    <t>Results from the study on Google accounts with multi factor authentication.</t>
+  </si>
+  <si>
+    <t>2FA phone and authenticator app as the registered secondary factors.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NOTE: Providing any two of the factors in the recovery procedure would lead to a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>successful recovery</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NOTE: Providing any two of the four factors in the recovery procedure would lead to a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>successful recovery</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2953,6 +7073,29 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -3009,7 +7152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -3255,13 +7398,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3349,9 +7531,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3376,13 +7555,7 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3487,6 +7660,152 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
@@ -3504,6 +7823,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2124075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>212900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>2732933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31D46D8-9254-EA6F-76B2-39640D34AB4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23650576" y="11191875"/>
+          <a:ext cx="7518574" cy="8571758"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3806,7 +8178,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3815,25 +8187,239 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56"/>
-      <c r="B1" s="60" t="s">
+      <c r="A1" s="53"/>
+      <c r="B1" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="56"/>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="52"/>
+      <c r="B2" s="55" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="59"/>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="60" t="s">
-        <v>44</v>
-      </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094A69A7-EB65-4173-AD91-580FBC414A0E}">
+  <dimension ref="E3:L16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" customWidth="1"/>
+    <col min="12" max="12" width="72.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E3" s="125" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E4" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E5" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E6" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E8" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="E10" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="121" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="115" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="94"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="116"/>
+    </row>
+    <row r="13" spans="5:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="108" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="106"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="109"/>
+    </row>
+    <row r="15" spans="5:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="86" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="94"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3843,8 +8429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E9353B9-58C1-4A38-903B-981C3715F5F8}">
   <dimension ref="G4:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3864,7 +8450,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="7:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="125" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3896,23 +8482,23 @@
       <c r="H7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="L7" s="46" t="s">
+      <c r="I7" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="43" t="s">
         <v>9</v>
       </c>
       <c r="M7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="62" t="s">
-        <v>60</v>
+      <c r="N7" s="59" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="7:14" ht="45" x14ac:dyDescent="0.25">
@@ -3920,23 +8506,23 @@
       <c r="H8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="L8" s="49" t="s">
+      <c r="I8" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="46" t="s">
         <v>8</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="7:14" ht="45" x14ac:dyDescent="0.25">
@@ -3944,23 +8530,23 @@
       <c r="H9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="64" t="s">
+      <c r="I9" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="64" t="s">
+      <c r="L9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="64" t="s">
+      <c r="M9" s="61" t="s">
         <v>9</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="7:14" ht="120" x14ac:dyDescent="0.25">
@@ -3968,23 +8554,23 @@
       <c r="H10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="65" t="s">
+      <c r="I10" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="65" t="s">
+      <c r="L10" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="47" t="s">
+      <c r="M10" s="44" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="7:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3992,92 +8578,92 @@
       <c r="H11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="67" t="s">
+      <c r="I11" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="64" t="s">
         <v>9</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="66" t="s">
+      <c r="M11" s="63" t="s">
         <v>8</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="7:14" ht="105" x14ac:dyDescent="0.25">
       <c r="H12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="L12" s="68" t="s">
+      <c r="J12" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="70" t="s">
+      <c r="M12" s="67" t="s">
         <v>10</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="7:14" ht="135" x14ac:dyDescent="0.25">
       <c r="H13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="64" t="s">
+      <c r="I13" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="L13" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="64" t="s">
+      <c r="J13" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="61" t="s">
         <v>9</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="7:14" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="71" t="s">
+      <c r="I14" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="72" t="s">
+      <c r="J14" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="69" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="7:14" ht="105" x14ac:dyDescent="0.25">
@@ -4085,23 +8671,23 @@
       <c r="H15" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="74" t="s">
+      <c r="I15" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="74" t="s">
+      <c r="K15" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="71" t="s">
         <v>9</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="61" t="s">
-        <v>52</v>
+      <c r="N15" s="58" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="7:14" ht="135" x14ac:dyDescent="0.25">
@@ -4109,23 +8695,23 @@
       <c r="H16" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="50" t="s">
+      <c r="I16" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="M16" s="50" t="s">
+      <c r="K16" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="47" t="s">
         <v>9</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="7:14" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4133,138 +8719,138 @@
       <c r="H17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="76" t="s">
+      <c r="I17" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="L17" s="75" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="75" t="s">
+      <c r="K17" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="72" t="s">
         <v>8</v>
       </c>
       <c r="N17" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14" ht="195" x14ac:dyDescent="0.25">
+      <c r="H18" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="17" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="7:14" ht="195" x14ac:dyDescent="0.25">
-      <c r="H18" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="77" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="77" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="L18" s="77" t="s">
-        <v>9</v>
-      </c>
-      <c r="M18" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="7:14" ht="165" x14ac:dyDescent="0.25">
       <c r="H19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="74" t="s">
+      <c r="J19" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="L19" s="73" t="s">
-        <v>8</v>
-      </c>
-      <c r="M19" s="74" t="s">
+      <c r="K19" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="L19" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" s="71" t="s">
         <v>9</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="7:14" ht="285" x14ac:dyDescent="0.25">
       <c r="H20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="77" t="s">
+      <c r="I20" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="77" t="s">
+      <c r="J20" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="M20" s="78" t="s">
+      <c r="K20" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="75" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="7:14" ht="240" x14ac:dyDescent="0.25">
       <c r="H21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="74" t="s">
+      <c r="I21" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="74" t="s">
+      <c r="J21" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="74" t="s">
+      <c r="K21" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="74" t="s">
+      <c r="L21" s="71" t="s">
         <v>9</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="7:14" ht="240" x14ac:dyDescent="0.25">
       <c r="H22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="77" t="s">
+      <c r="I22" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="77" t="s">
+      <c r="J22" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="77" t="s">
+      <c r="K22" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="77" t="s">
+      <c r="L22" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="74" t="s">
         <v>9</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="7:14" x14ac:dyDescent="0.25">
@@ -4284,10 +8870,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACBA7545-0C3A-4F9A-A939-58735D1C6324}">
-  <dimension ref="G7:AK35"/>
+  <dimension ref="G3:AK36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4310,165 +8896,180 @@
     <col min="41" max="41" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="7:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G7" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="7:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="19" t="s">
+    <row r="3" spans="7:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G3" s="125" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="7:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G4" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="7:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G5" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="7:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G6" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="7:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N10" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="7:14" ht="225" x14ac:dyDescent="0.25">
-      <c r="G10" s="13" t="s">
+    <row r="11" spans="7:14" ht="225" x14ac:dyDescent="0.25">
+      <c r="G11" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="45" t="s">
+      <c r="H11" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="46" t="s">
+      <c r="L11" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N11" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="7:14" ht="210" x14ac:dyDescent="0.25">
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="7:14" ht="210" x14ac:dyDescent="0.25">
-      <c r="G11" s="2" t="s">
+    <row r="13" spans="7:14" ht="195" x14ac:dyDescent="0.25">
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="30:37" x14ac:dyDescent="0.25">
+      <c r="AK24" s="16"/>
+    </row>
+    <row r="31" spans="30:37" x14ac:dyDescent="0.25">
+      <c r="AD31" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="47" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="48" t="s">
+      <c r="AE31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH31" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" s="50" t="s">
+      <c r="AI31" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ31" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="7:14" ht="195" x14ac:dyDescent="0.25">
-      <c r="G12" s="1" t="s">
+      <c r="AK31" s="16"/>
+    </row>
+    <row r="36" spans="30:37" ht="195" x14ac:dyDescent="0.25">
+      <c r="AD36" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="52" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="53" t="s">
+      <c r="AE36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH36" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="30:37" x14ac:dyDescent="0.25">
-      <c r="AK23" s="16"/>
-    </row>
-    <row r="30" spans="30:37" x14ac:dyDescent="0.25">
-      <c r="AD30" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK30" s="16"/>
-    </row>
-    <row r="35" spans="30:37" ht="195" x14ac:dyDescent="0.25">
-      <c r="AD35" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF35" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK35" s="16" t="s">
+      <c r="AI36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK36" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4479,10 +9080,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A483D20B-4577-49E2-93D4-59D24BC27987}">
-  <dimension ref="E3:AF26"/>
+  <dimension ref="E3:AF30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4506,183 +9107,199 @@
   </cols>
   <sheetData>
     <row r="3" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E3" s="20" t="s">
-        <v>30</v>
+      <c r="E3" s="125" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E4" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E5" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E6" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="10" spans="5:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" ht="399" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="5:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="5:12" ht="399" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="34" t="s">
+    <row r="13" spans="5:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I13" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="5:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="5:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="5:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="30"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="31"/>
-    </row>
-    <row r="22" spans="23:32" x14ac:dyDescent="0.25">
-      <c r="AE22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="23:32" x14ac:dyDescent="0.25">
-      <c r="AD23" s="16"/>
-    </row>
-    <row r="24" spans="23:32" x14ac:dyDescent="0.25">
-      <c r="AF24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="23:32" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="W25" t="s">
-        <v>12</v>
-      </c>
-      <c r="X25" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD25" s="16" t="s">
+      <c r="J13" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="86" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="14" spans="5:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="87"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="86"/>
     </row>
     <row r="26" spans="23:32" x14ac:dyDescent="0.25">
       <c r="AE26" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="AD27" s="16"/>
+    </row>
+    <row r="28" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="AF28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="23:32" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="W29" t="s">
+        <v>12</v>
+      </c>
+      <c r="X29" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD29" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="23:32" x14ac:dyDescent="0.25">
+      <c r="AE30" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4690,14 +9307,1086 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36B984E-84DC-487B-A2B3-D8A1066A5644}">
-  <dimension ref="A1"/>
+  <dimension ref="E3:AN26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" customWidth="1"/>
+    <col min="12" max="12" width="83.7109375" customWidth="1"/>
+    <col min="32" max="32" width="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="23" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="4.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E3" s="125" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E4" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E5" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E6" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="10" spans="5:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" ht="405" x14ac:dyDescent="0.25">
+      <c r="E11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" ht="285" x14ac:dyDescent="0.25">
+      <c r="E12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" ht="379.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="94"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="86"/>
+    </row>
+    <row r="22" spans="32:40" x14ac:dyDescent="0.25">
+      <c r="AJ22" s="76"/>
+      <c r="AM22" s="16"/>
+    </row>
+    <row r="23" spans="32:40" x14ac:dyDescent="0.25">
+      <c r="AJ23" s="76"/>
+      <c r="AM23" s="16"/>
+    </row>
+    <row r="24" spans="32:40" x14ac:dyDescent="0.25">
+      <c r="AN24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="32:40" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF25" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG25" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH25" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI25" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ25" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK25" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL25" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM25" s="98" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="32:40" x14ac:dyDescent="0.25">
+      <c r="AF26" s="97"/>
+      <c r="AG26" s="97"/>
+      <c r="AH26" s="97"/>
+      <c r="AI26" s="97"/>
+      <c r="AJ26" s="97"/>
+      <c r="AK26" s="97"/>
+      <c r="AL26" s="99"/>
+      <c r="AM26" s="98"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="AM25:AM26"/>
+    <mergeCell ref="AL25:AL26"/>
+    <mergeCell ref="AK25:AK26"/>
+    <mergeCell ref="AJ25:AJ26"/>
+    <mergeCell ref="AI25:AI26"/>
+    <mergeCell ref="AH25:AH26"/>
+    <mergeCell ref="AG25:AG26"/>
+    <mergeCell ref="AF25:AF26"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43865F2C-9A95-41DC-98F4-B43BC26E2487}">
+  <dimension ref="E3:AC35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="9" width="24.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" customWidth="1"/>
+    <col min="11" max="11" width="25.7109375" customWidth="1"/>
+    <col min="12" max="12" width="72.42578125" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="152.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E3" s="125" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E4" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E5" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E6" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="10" spans="5:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" ht="300" x14ac:dyDescent="0.25">
+      <c r="E11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="E12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC22" s="16"/>
+    </row>
+    <row r="27" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC27" s="16"/>
+    </row>
+    <row r="32" spans="29:29" x14ac:dyDescent="0.25">
+      <c r="AC32" s="16"/>
+    </row>
+    <row r="35" spans="22:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="V35" t="s">
+        <v>12</v>
+      </c>
+      <c r="W35" t="s">
+        <v>8</v>
+      </c>
+      <c r="X35" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC35" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F594C62F-E484-4A4C-A023-F028BCB2C3E6}">
+  <dimension ref="E3:AG34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="67.5703125" customWidth="1"/>
+    <col min="26" max="26" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="51" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E3" s="125" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E4" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E5" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E6" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="10" spans="5:12" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" ht="300" x14ac:dyDescent="0.25">
+      <c r="E11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="E12" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="82" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="33:33" x14ac:dyDescent="0.25">
+      <c r="AG34" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD833F27-28DC-4191-992C-2EFBE7852584}">
+  <dimension ref="F3:AB29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="68.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="6:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F3" s="125" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="6:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F4" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="6:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F5" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="6:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F6" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="6:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="6:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F8" s="20"/>
+    </row>
+    <row r="10" spans="6:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="F10" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="6:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="87" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="102" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="100" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="6:13" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="87"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="100"/>
+    </row>
+    <row r="13" spans="6:13" ht="390" x14ac:dyDescent="0.25">
+      <c r="F13" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="6:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="96" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="6:13" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="94"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="86"/>
+    </row>
+    <row r="29" spans="28:28" x14ac:dyDescent="0.25">
+      <c r="AB29" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8B90C7-7F9E-4DB8-9711-5D877DCE1C18}">
+  <dimension ref="E3:AG39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" customWidth="1"/>
+    <col min="12" max="12" width="69.5703125" customWidth="1"/>
+    <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="59.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E3" s="125" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E4" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E5" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E6" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="5:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E8" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="E10" s="85" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="119" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="121" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="93" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="115" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" ht="366.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="94"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="116"/>
+    </row>
+    <row r="13" spans="5:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="108" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="106"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="109"/>
+    </row>
+    <row r="15" spans="5:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="96" t="s">
+        <v>91</v>
+      </c>
+      <c r="J15" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="94"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="86"/>
+    </row>
+    <row r="38" spans="25:33" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y38" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z38" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA38" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB38" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC38" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD38" s="97" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE38" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF38" s="107" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="25:33" x14ac:dyDescent="0.25">
+      <c r="Y39" s="97"/>
+      <c r="Z39" s="97"/>
+      <c r="AA39" s="97"/>
+      <c r="AB39" s="97"/>
+      <c r="AC39" s="114"/>
+      <c r="AD39" s="97"/>
+      <c r="AE39" s="97"/>
+      <c r="AF39" s="107"/>
+      <c r="AG39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="AF38:AF39"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="Y38:Y39"/>
+    <mergeCell ref="Z38:Z39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="AE38:AE39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>